--- a/story/主线剧情/main/level_st_07-03.xlsx
+++ b/story/主线剧情/main/level_st_07-03.xlsx
@@ -6400,7 +6400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스와이어"]  어떻게….. 눈이 내리지?
+    <t xml:space="preserve">[name="스와이어"]  어떻게…… 눈이 내리지?
 </t>
   </si>
   <si>
@@ -6472,7 +6472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  그의 의식은 이미 사라졌는데…… 그런데도, 강철같은 의지는 아직도 그의 육체에 남아있어.
+    <t xml:space="preserve">[name="켈시"]  의식은 이미 사라졌는데…… 그런데도, 강철같은 의지는 아직도 저 육체에 남아있는 것만 같군.
 </t>
   </si>
   <si>
@@ -6532,15 +6532,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로즈몬티스"]  그의 죽음을 헛되게 만들고 싶은 거야?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="로즈몬티스"]  그는 당신들이 죽길 바라지 않아. 그는 당신들 스스로 길을 개척해가길 바랐다고.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="로즈몬티스"]  그는 당신들을 살리기 위해, 고독한 죽음을 선택했는데…!
+    <t xml:space="preserve">[name="로즈몬티스"]  저 사람의 죽음을 헛되게 만들고 싶은 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"]  저 사람은 너희가 죽길 바라지 않아. 너희 스스로 길을 개척해가길 바랐다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"]  저 사람은 너희를 살리겠다고 고독한 죽음을 선택했는데…!
 </t>
   </si>
   <si>
@@ -6572,7 +6572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="물론 그는 프로스트노바의 결정을 그대로 받아들일 수 없었겠지!", values="1")]
+    <t xml:space="preserve">[Decision(options="물론 패트리어트는 프로스트노바의 결정을 그대로 받아들일 수 없었겠지!", values="1")]
 </t>
   </si>
   <si>
@@ -6580,11 +6580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="그가 맹목적인 사람이 아니기 때문이다!", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="그의 판단이야말로…… 공정했단 말이다!", values="1")]
+    <t xml:space="preserve">[Decision(options="패트리어트가 맹목적인 사람이 아니기 때문이다!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="패트리어트의 판단이야말로…… 공정했단 말이다!", values="1")]
 </t>
   </si>
   <si>
@@ -6648,7 +6648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="방패병"]  대위님이 대항해온 이들….. 노예를 부리는 자, 타락한 왕, 타인을 억압하는 자, 재앙을 일으키는 자, 모두를 절대 가만두지 않을 것이다.
+    <t xml:space="preserve">[name="방패병"]  대위님이 대항해온 이들…… 노예를 부리는 자, 타락한 왕, 타인을 억압하는 자, 재앙을 일으키는 자, 모두를 절대 가만두지 않을 것이다.
 </t>
   </si>
   <si>
@@ -6728,23 +6728,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그는 절 죽일 수 있었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  하지만 그는…… 생각해 냈어요……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="패트리어트"]  그럼 지금 당장 그녀를 죽이겠다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="프로스트노바"]  안돼, 어떻게 그녀가 나쁜 사람이라고 확신하는 거야?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="패트리어트"]  그녀는 카셰이의 계승자다! 그녀는 분명 그 늙고 검은 뱀처럼 우리 모두를 독살할 것이다!
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨는 절 죽일 수 있었어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  하지만 불드록카스티 씨는…… 생각해 냈어요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그럼 지금 당장 그 여자를 죽이겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  안돼, 어떻게 그 여자가 나쁜 사람이라고 확신하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그 여자는 카셰이의 계승자다! 그 여자는 분명 그 늙고 검은 뱀처럼 우리 모두를 독살할 것이다!
 </t>
   </si>
   <si>
@@ -6752,7 +6752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  설사 그녀가 훗날 정말 그렇게 변한다 해도, 우리에게 지금의 그녀를 죽일 권리는 없어.
+    <t xml:space="preserve">[name="프로스트노바"]  그 여자가 훗날 정말 그렇게 변한다 해도, 우리에게 지금의 탈룰라를 죽일 권리는 없어.
 </t>
   </si>
   <si>
@@ -6760,7 +6760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  지금의 그녀는 카셰이인지 뭔지가 아니니까. 아, 아버지 말은 도무지 이해할 수가 없다니까. 저 여자는 그냥 탈룰라일 뿐이라고.
+    <t xml:space="preserve">[name="프로스트노바"]  지금의 그 여자는 카셰이인지 뭔지가 아니니까. 아, 아버지 말은 도무지 이해할 수가 없다니까. 그 여자는 그냥 탈룰라일 뿐이라고.
 </t>
   </si>
   <si>
@@ -6768,7 +6768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  뭐가 복잡해진다는 건지…… 이 고집불통. 순수한 투쟁심 같은 거, 진심이라면, 난 아버지를 만날 수도 없었을 거야.
+    <t xml:space="preserve">[name="프로스트노바"]  뭐가 복잡해진다는 건지…… 이 고집불통. 순수한 투쟁심이네 뭐네, 진짜 그랬으면 난 아버지를 만날 수도 없었을 거야.
 </t>
   </si>
   <si>
@@ -6800,7 +6800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  왜냐면, 탈룰라에게 무슨 일이 발생하더라도, 그건 그녀와 그녀 주변 사람의 문제니까.
+    <t xml:space="preserve">[name="프로스트노바"]  왜냐면, 탈룰라에게 무슨 일이 생기더라도, 그건 그 여자와 주변 사람의 문제니까.
 </t>
   </si>
   <si>
@@ -6816,7 +6816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  그녀와 함께 해보자고, 시도 정도는 해보잔 거지.
+    <t xml:space="preserve">[name="프로스트노바"]  그 여자랑 함께 해보자고, 시도 정도는 해보자 이거야.
 </t>
   </si>
   <si>
@@ -6844,7 +6844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  ……그는 절 죽일 수 있었어요. 불드록카스티 씨는…… 충분히 절 죽일 수 있었어요.
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨는…… 충분히 절 죽일 수 있었어요.
 </t>
   </si>
   <si>
@@ -6852,7 +6852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그가 손을 멈췄어요. 마지막에, 그가 스스로 손을 멈췄어요.
+    <t xml:space="preserve">[name="아미야"]  하지만 마지막에, 불드록카스티 씨가 스스로 손을 멈췄어요.
 </t>
   </si>
   <si>
@@ -6864,7 +6864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  가장 중요한 말을 알려줘. 그는 마지막에 무슨 말을 했나?
+    <t xml:space="preserve">[name="켈시"]  가장 중요한 말이겠군. 마지막에 한 말은 뭐였지?
 </t>
   </si>
   <si>
@@ -6896,11 +6896,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그는…… 그 사람은 물어보았고……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그 사람은 감탄을 했어요……
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨는 질문을 했고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탄식을 했어요……
 </t>
   </si>
   <si>
@@ -6916,7 +6916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그의 일생을, 보게 되었어요.
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨의 일생을 보게 되었어요.
 </t>
   </si>
   <si>
@@ -6940,7 +6940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  그는 죽었고, 그의 배반도 끝이 났다.
+    <t xml:space="preserve">[name="켈시"]  불드록카스티는 죽었고, 배반도 끝이 났다.
 </t>
   </si>
   <si>
@@ -6948,7 +6948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그는 언제나 자신의 신념을 지켜나간 나머지, 자신의 소중한 것을 저버리고 말았어요.
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨는 언제나 자신의 신념을 지켜나간 나머지, 자신의 소중한 것을 저버리고 말았어요.
 </t>
   </si>
   <si>
@@ -6976,35 +6976,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  멀리 떠나 있어도, 그는 언제나 카즈델을 그리워하고 있었어요…… 그는 돌아가기 싫었던 게 아니라, 돌아갈 수 없었던 거예요. 첫 번째 배신에 대한…… 대가로써.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  우르수스는 그의 조국이에요. 그는 우르수스를 위해 평생을 싸워왔고…… 아들의 죽음도 자기 탓으로 돌렸죠.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  그는 우르수스의 사악함을 인정하면서도, 이 땅을 위해 끝까지 싸우고…… 목숨을 바쳤어요. 두 번째 배신에 한 대가도, 그는 충분히 치렀습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  그리고 이번엔…… 그는 탈룰라를 배신해야 했지만, 그 행동으로 자신이 지켜왔던 자들의 일부가 죽게 될 거라고 예견했어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  그가 내린 결정은 감염자의 미래를 지켰지만, 반면 그는…… 그는 죽게 될 사람들 때문에…… 고통스러울 뿐이었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  이것이 바로 그의 세 번째 배신이자, 속죄를 결심한 이유기도 해요. 이번 싸움은, 처음부터 끝까지 그 대가를 치르기 위한 것이었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  이 세 번으로, 운명은 사실 그를 먼 곳으로 밀어내려 했지만, 그는 계속 돌아왔어요. 운명의 잔혹한 장난을 증오하면서도, 그는 모든 결과를 짊어졌어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"]  십 년, 이십 년 정도였다면…… 이해할 수 있어요. 하지만…… 너무 긴 시간이었어요. 그가 범한 잘못의 대가나 후회로는, 너무나 긴 시간이었어요.
+    <t xml:space="preserve">[name="아미야"]  멀리 떠나 있어도, 불드록카스티 씨는 언제나 카즈델을 그리워하고 있었어요…… 그분은 돌아가기 싫었던 게 아니라, 돌아갈 수 없었던 거예요. 첫 번째 배신에 대한…… 대가로써.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  우르수스는 불드록카스티 씨의 조국이에요. 불드록카스티 씨는 우르수스를 위해 평생을 싸워왔고…… 아들의 죽음도 자기 탓으로 돌렸죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  우르수스의 사악함을 인정하면서도, 이 땅을 위해 끝까지 싸우고…… 목숨을 바쳤어요. 두 번째 배신에 한 대가도 충분히 치렀습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  그리고 이번엔…… 탈룰라를 배신해야 했지만, 그 행동으로 자신이 지켜왔던 자들의 일부가 죽게 될 거라고 예견했어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨가 내린 결정은 감염자의 미래를 지켰지만…… 정작 본인은 죽게 될 사람들 때문에…… 고통스러울 뿐이었죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  이것이 바로 불드록카스티 씨의 세 번째 배신이자, 속죄를 결심한 이유기도 해요. 이번 싸움은, 처음부터 끝까지 그 대가를 치르기 위한 것이었던 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  이 세 번으로, 운명은 사실 불드록카스티 씨를 먼 곳으로 밀어내려 했지만, 불드록카스티 씨는 계속 돌아왔어요. 운명의 잔혹한 장난을 증오하면서도, 모든 결과를 짊어졌죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  십 년, 이십 년 정도였다면 이해할 수 있겠지만…… 너무 긴 시간이었어요. 자신이 범한 잘못의 대가나 후회로는, 너무나 긴 시간이었어요.
 </t>
   </si>
   <si>
@@ -7012,27 +7012,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그는 분명 절 죽일 수 있었는데, 마지막에 결국 멈췄어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="켈시"]  ……그는 자신의 고통, 수백 년 동안 지켜온 신념, 그리고 이 세상을 향한 사랑을 모두 이겨냈다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="켈시"]  그는 결국 자신이 긴 세월 동안 지켜온 규칙을 저버렸다. 그는…… 운명에 굴복한 거야.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="켈시"]  아니, 이렇게 말하면 그를 욕보이는 거겠지. 그는 지금까지 맞서온 것들을 무시하기로 결정했고, 자신의 마음속 벽을 뛰어넘은 거다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="켈시"]  그는 네게 미래를 맡겼어. 스스로 옳다고 생각하는 일을 선택했고, 더는 어떤 이념 따위로 자신을 갉아먹지 않겠다고 선택한 거야.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="켈시"]  물론, 그의 마음은, 네 말처럼……
+    <t xml:space="preserve">[name="아미야"]  불드록카스티 씨는 분명 절 죽일 수 있었는데, 마지막에 결국 멈췄어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  ……불드록카스티는 자신의 고통, 수백 년 동안 지켜온 신념, 그리고 이 세상을 향한 사랑을 모두 이겨냈다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  하지만 결국 자신이 긴 세월 동안 지켜온 규칙을 저버렸다. 불드록카스티는…… 운명에 굴복한 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  아니, 이렇게 말하면 불드록카스티를 욕보이는 셈이 되겠지. 불드록카스티는 지금까지 맞서온 것들을 무시하기로 결정했고, 자신의 마음속 벽을 뛰어넘은 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  불드록카스티는 네게 미래를 맡겼어. 스스로 옳다고 생각하는 일을 선택했고, 더는 어떤 이념 따위로 자신을 갉아먹지 않겠다고 선택한 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  물론, 불드록카스티의 마음은, 네 말처럼……
 </t>
   </si>
   <si>
@@ -7100,7 +7100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 용병"]  이번엔, 넘어가 주마. 다음엔 쓸데없는 짓 말라고.
+    <t xml:space="preserve">[name="살카즈 용병"]  이번엔 그냥 넘어가 주마. 다음엔 얄짤없을 줄 알아.
 </t>
   </si>
   <si>
@@ -7120,7 +7120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 용병"]  그것참 놀라운 소식이군.
+    <t xml:space="preserve">[name="살카즈 용병"]  그것 참 놀라운 소식이군.
 </t>
   </si>
   <si>
@@ -7128,7 +7128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="유격대 전사"]  너희 마족 놈들은, 우리 살카즈보다 몇 배는 더 추악한 냄새를 풍기는군.
+    <t xml:space="preserve">[name="유격대 전사"]  너희 마족 놈들은, 우리쪽의 살카즈보다 몇 배는 더 추악한 냄새를 풍기는군.
 </t>
   </si>
   <si>
@@ -7192,11 +7192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"]  진정 리유니온을 위하고, 우릴 위해 싸워온 패트리어트가, 죽었단 말이다!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="유격대 전사"]  탈룰라가 패트리어트를 겨냥해 음모를 꾸몄다….. 탈룰라는 우르수스의 스파이다!
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"]  진짜로 리유니온을 위하고, 우릴 위해 싸워온 패트리어트가 죽었단 말이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="유격대 전사"]  탈룰라가 패트리어트를 겨냥해 음모를 꾸몄다… 탈룰라는 우르수스의 스파이다!
 </t>
   </si>
   <si>
@@ -7212,7 +7212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="리유니온 멤버"]  난 알고 있어…… 용병들은 유격대를 기습할 계획이었다고! 나는 그들의 계획을 봤어….. 그놈들은 제정신이 아냐!
+    <t xml:space="preserve">[name="리유니온 멤버"]  난 알고 있어…… 용병들은 유격대를 기습할 계획이었다고! 나는 그들의 계획을 봤어… 그놈들은 제정신이 아냐!
 </t>
   </si>
   <si>
@@ -7220,7 +7220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="유격대 전사"]  움직이지 마! 목숨을 부지하고 싶다면, 우리에게 맞서지 마라. 그렇지 않으면, 박살을 내줄 테니!
+    <t xml:space="preserve">[name="유격대 전사"]  움직이지 마! 목숨을 부지하고 싶다면 우리에게 맞서지 마라. 그렇지 않으면 박살을 내주마!
 </t>
   </si>
   <si>
@@ -7368,7 +7368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  {@nickname} 박사님. 여기부턴 두 길로 나누어져야 할 것 같네요.
+    <t xml:space="preserve">[name="아미야"]  {@nickname} 박사님. 여기부턴 두 길로 나뉘어 져야 할 것 같네요.
 </t>
   </si>
   <si>
@@ -7408,7 +7408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  첸 씨가 사령탑 부근에 이미 도착했을지도 몰라요. 우리보다 한발 앞서가고 있으니까요. 우리도 서두르죠.
+    <t xml:space="preserve">[name="아미야"]  첸 씨가 사령탑 부근에 이미 도착했을지도 몰라요. 우리보다 한발 앞서 가고 있으니까요. 우리도 서두르죠.
 </t>
   </si>
   <si>
@@ -7564,7 +7564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  켈시? 설명해 줘.
+    <t xml:space="preserve">[name="W"]  켈시? 설명해줘.
 </t>
   </si>
   <si>
@@ -7584,7 +7584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  켈시, 너 {@nickname} 박사랑같이 움직이는 거야?
+    <t xml:space="preserve">[name="W"]  켈시, 너 {@nickname} 박사랑 같이 움직이는 거야?
 </t>
   </si>
   <si>
@@ -7648,7 +7648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  혹시, 네가 정말로 미쳐버렸다면 얘기는 달라지겠지.
+    <t xml:space="preserve">[name="W"]  뭐 그래도, 네가 정말로 미쳐버렸다면 얘기는 달라지겠지만.
 </t>
   </si>
   <si>
@@ -7656,7 +7656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  여기에 네가 끼어들 틈은 없어, 친구. 켈시의 문제를 우선 해결하고 나서, 깊은 대화를 나눠보자고.
+    <t xml:space="preserve">[name="W"]  우리 친구~ 끼어드시게요? 너랑 난 일단 켈시 문제부터 해결하고 나서 찐~한 대화를 나눠보자고.
 </t>
   </si>
   <si>
@@ -7672,7 +7672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  당시에 의장실에 들어갔으면서, 테레시아가 어디 있는지도 아는 사람은 단 한 명뿐이었어. 켈시, 이게 무슨 뜻인지 모르는 건 아니겠지?
+    <t xml:space="preserve">[name="W"]  그때 의장실에 들어갔으면서, 테레시아가 어디 있는지도 아는 사람은 단 한 명뿐이었어. 켈시, 이게 무슨 뜻인지 모르는 건 아니겠지?
 </t>
   </si>
   <si>
@@ -7688,7 +7688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  아, 알겠다. 또 저울질이라도 하고 있나 보구나. 또 이쪽저쪽 왔다 갔다 하면서.
+    <t xml:space="preserve">[name="W"]  아, 알겠다. 또 저울질이라도 하고 있나 보구나. 또 이쪽저쪽 왔다갔다하면서.
 </t>
   </si>
   <si>
@@ -7696,7 +7696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  확인되지 않은 사실에 네 감정이 휘둘리게 놔둬선 안 되지, W.
+    <t xml:space="preserve">[name="켈시"]  확인되지 않은 사실에 감정이 휘둘리면 쓰나.
 </t>
   </si>
   <si>
@@ -7708,7 +7708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  진상을 알고 싶어. 진상을 알기 전까진, 저 녀석이 살인범이야. 난 살인범 따위에게 적당히 해줄 생각 없어.
+    <t xml:space="preserve">[name="W"]  난 진상이 알고 싶어. 그러니까 진상을 알기 전까진 저 녀석이 살인범이야. 난 살인범 따위에게 적당히 해줄 생각 없다고.
 </t>
   </si>
   <si>
@@ -7728,7 +7728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  어디서 들었는지는 모르겠지만, 정말이지, 못 들은 일로 해줬으면 좋겠어. 너와 난 근본부터 다른 생물이야.
+    <t xml:space="preserve">[name="W"]  어디서 들었는지는 모르겠지만, 정말이지… 그냥 못 들은 셈 쳐주면 안 될까? 너랑 난 근본부터 다른 생물이야.
 </t>
   </si>
   <si>
@@ -7832,7 +7832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  Mon3tr, 풍관벽, 격리벽, 기초 보호층, 외벽까지. 그녀와 같이 날려버려.
+    <t xml:space="preserve">[name="켈시"]  Mon3tr, 풍관벽, 격리벽, 기초 보호층, 외벽까지. W와 같이 날려버려.
 </t>
   </si>
   <si>
@@ -7844,7 +7844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="그녀의 말을 끝까지 들어주리라곤 상상도 못 했는데.", values="1")]
+    <t xml:space="preserve">[Decision(options="저 여자 말을 끝까지 들어주리라곤 상상도 못 했는데.", values="1")]
 </t>
   </si>
   <si>
@@ -7852,7 +7852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="그럼 왜 설명해 주지 않는 거지?", values="1")]
+    <t xml:space="preserve">[Decision(options="그럼 왜 설명해주지 않는 거지?", values="1")]
 </t>
   </si>
   <si>
@@ -7880,7 +7880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메피스토"]  내 몸에 난 구멍을 막아주려고? 아니면 상처를 치료해 주려고?
+    <t xml:space="preserve">[name="메피스토"]  내 몸에 난 구멍을 막아주려고? 아니면 상처를 치료해주려고?
 </t>
   </si>
   <si>
@@ -7912,7 +7912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="첸"]  하지만 이것으로 햇빛이 가려졌으니, 움직임이 한층 수월해지겠군.
+    <t xml:space="preserve">[name="첸"]  하지만 이것으로 햇빛이 가려졌으니, 움직이기 한층 수월해지겠군.
 </t>
   </si>
   <si>
@@ -7964,7 +7964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스와이어"]  하지만 넌 알고 있잖아.
+    <t xml:space="preserve">[name="스와이어"]  근데 너 알고 있지 않아?
 </t>
   </si>
   <si>
@@ -7972,7 +7972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="호시구마"]  린 아가씨, 우리 근위국의 아가씨를 곤란하게 하지 말자고.
+    <t xml:space="preserve">[name="호시구마"]  린 아가씨, 우리 근위국의 아가씨 너무 괴롭히지 마.
 </t>
   </si>
   <si>
@@ -8012,7 +8012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="호시구마"]  아, 어쩔 수 없어, 아가씨는 계속 이런 상태였거든.
+    <t xml:space="preserve">[name="호시구마"]  하아… 정말이지, 아까부터 계속 이 상태라니까.
 </t>
   </si>
   <si>
@@ -8028,7 +8028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스와이어"]  하지만…… 이게 우리의 마지막이라니. 난 아직 준비가, 준비가 아직 안 됐는데…… 이 빌어먹을 용을 다시는 볼 수 없다니……
+    <t xml:space="preserve">[name="스와이어"]  하지만…… 이게 우리의 마지막이라니. 난 아직 준비가, 준비가 아직 안 됐는데…… 그 빌어먹을 용을 다시는 볼 수 없다니……
 </t>
   </si>
   <si>
@@ -8036,7 +8036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="호시구마"]  내가 좋아하는 말이 있어, 뭐냐면…… 음…… 살아 있다면 언제가 꼭 다시 만나게 된다.
+    <t xml:space="preserve">[name="호시구마"]  내가 좋아하는 말이 있거든? 뭐냐면…… 음…… 살아만 있다면 언젠가는 꼭 다시 만나게 된다.
 </t>
   </si>
   <si>
@@ -8116,7 +8116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="래트킹"]  막 알게 된 참이네. 다 자네의 그 멍청한 조카딸 덕분이지, 자네을 아주 똑 닮았더군.
+    <t xml:space="preserve">[name="래트킹"]  막 알게 된 참이네. 다 자네의 그 멍청한 조카딸 덕분이지, 자네를 아주 똑 닮았더군.
 </t>
   </si>
   <si>
@@ -8124,11 +8124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  거뤠이, 그냥 산책만 하려고 나온 건 아니겠죠, 아무리 당신이라도 내 시간을 낭비할 순 없어서 말입니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="래트킹"]  오랜 친구와 옛이야기를 나누는 것도, 자네에겐 시간 낭비인가?
+    <t xml:space="preserve">[name="웨이 옌우"]  거뤠이, 그냥 산책만 하려고 나온 건 아니겠죠, 아무리 당신이라도 내 시간을 낭비하게 둘 순 없어서 말입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="래트킹"]  오랜 친구와 옛이야기를 나누는 것도, 자네에겐 시간 낭비란 말인가?
 </t>
   </si>
   <si>
@@ -8140,7 +8140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  무리입니다. 난 그 어떤 요구도 들어줄 수 없어요.
+    <t xml:space="preserve">[name="웨이 옌우"]  무리입니다. 난 아무것도 안 해줄 겁니다.
 </t>
   </si>
   <si>
@@ -8184,7 +8184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">눈물을 흘린다면, 역시가 그가 죽었기 때문이겠지. 아, 가엾은 패트리어트!
+    <t xml:space="preserve">눈물을 흘린다면, 그건 아마 그가 죽었기 때문이겠지. 아, 가엾은 패트리어트!
 </t>
   </si>
   <si>
@@ -8224,7 +8224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">게다가, 그에게 있어 죽음은 해방과도 같잖아?
+    <t xml:space="preserve">게다가, 그 사람한테 죽음은 해방이나 다름 없잖아?
 </t>
   </si>
   <si>
@@ -8244,7 +8244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  네가 아니었으면, 난 저 쓰레기 더미에서 어떻게 빠져나와야 할지 몰랐을 거야.
+    <t xml:space="preserve">[name="W"]  네가 아니었으면, 난 저 쓰레기더미에서 어떻게 빠져나와야 할지 몰랐을 거야.
 </t>
   </si>
   <si>
